--- a/Load_Table.xlsx
+++ b/Load_Table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="153">
   <si>
     <t>Case</t>
   </si>
@@ -31,7 +31,19 @@
     <t>Weight Value</t>
   </si>
   <si>
-    <t>Altitude</t>
+    <t>Altitude Key</t>
+  </si>
+  <si>
+    <t>Altitude [m]</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Fuel Weight</t>
+  </si>
+  <si>
+    <t>Thrust</t>
   </si>
   <si>
     <t>1</t>
@@ -52,6 +64,12 @@
     <t>SL</t>
   </si>
   <si>
+    <t>475876.03251585504</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -70,6 +88,9 @@
     <t>119.31141250239949</t>
   </si>
   <si>
+    <t>-1.0</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -79,6 +100,9 @@
     <t>58.83534974664413</t>
   </si>
   <si>
+    <t>0.6225190839694656</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -163,6 +187,9 @@
     <t>FL310</t>
   </si>
   <si>
+    <t>389302.45497876627</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
@@ -262,6 +289,9 @@
     <t>FL200</t>
   </si>
   <si>
+    <t>380784.5172638308</t>
+  </si>
+  <si>
     <t>32</t>
   </si>
   <si>
@@ -340,6 +370,9 @@
     <t>64.05179263749925</t>
   </si>
   <si>
+    <t>0.6225190839694654</t>
+  </si>
+  <si>
     <t>45</t>
   </si>
   <si>
@@ -358,6 +391,9 @@
     <t>1903595.832570875</t>
   </si>
   <si>
+    <t>364517.40268632</t>
+  </si>
+  <si>
     <t>47</t>
   </si>
   <si>
@@ -398,6 +434,9 @@
   </si>
   <si>
     <t>52.09737304996721</t>
+  </si>
+  <si>
+    <t>0.6225190839694658</t>
   </si>
   <si>
     <t>55</t>
@@ -765,13 +804,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -790,1385 +829,1757 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G17">
         <v>9449</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G18">
         <v>9449</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G19">
         <v>9449</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
         <v>54</v>
       </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G20">
         <v>9449</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
         <v>55</v>
       </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="F21" t="s">
         <v>56</v>
-      </c>
-      <c r="D21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" t="s">
-        <v>48</v>
       </c>
       <c r="G21">
         <v>9449</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G22">
         <v>9449</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G23">
         <v>9449</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G24">
         <v>9449</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G25">
         <v>9449</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G26">
         <v>9449</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G27">
         <v>9449</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G28">
         <v>9449</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G29">
         <v>9449</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G30">
         <v>9449</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G31">
         <v>9449</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G32">
         <v>4572</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G33">
         <v>4572</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E34" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G34">
         <v>4572</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G35">
         <v>4572</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
         <v>88</v>
       </c>
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>89</v>
       </c>
-      <c r="D36" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" t="s">
-        <v>80</v>
-      </c>
       <c r="F36" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G36">
         <v>4572</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" t="s">
         <v>90</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" t="s">
-        <v>81</v>
       </c>
       <c r="G37">
         <v>4572</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E38" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F38" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G38">
         <v>4572</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
         <v>95</v>
       </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" t="s">
-        <v>85</v>
-      </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E39" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G39">
         <v>4572</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G40">
         <v>4572</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E41" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F41" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G41">
         <v>4572</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F42" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G42">
         <v>4572</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F43" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G43">
         <v>4572</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F44" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G44">
         <v>4572</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F45" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G45">
         <v>4572</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" t="s">
+        <v>118</v>
+      </c>
+      <c r="I45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G46">
         <v>4572</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" t="s">
+        <v>124</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" t="s">
         <v>11</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" t="s">
-        <v>112</v>
-      </c>
-      <c r="E48" t="s">
-        <v>113</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="C52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" t="s">
+        <v>135</v>
+      </c>
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>140</v>
+      </c>
+      <c r="I55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" t="s">
+        <v>135</v>
+      </c>
+      <c r="F56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" t="s">
         <v>11</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="C57" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" t="s">
+        <v>146</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
         <v>17</v>
       </c>
-      <c r="D49" t="s">
-        <v>112</v>
-      </c>
-      <c r="E49" t="s">
-        <v>113</v>
-      </c>
-      <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="I57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" t="s">
         <v>19</v>
       </c>
-      <c r="C50" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" t="s">
-        <v>113</v>
-      </c>
-      <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" t="s">
         <v>22</v>
       </c>
-      <c r="C51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" t="s">
-        <v>112</v>
-      </c>
-      <c r="E51" t="s">
-        <v>113</v>
-      </c>
-      <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>120</v>
-      </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" t="s">
-        <v>123</v>
-      </c>
-      <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" t="s">
-        <v>122</v>
-      </c>
-      <c r="E53" t="s">
-        <v>123</v>
-      </c>
-      <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" t="s">
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" t="s">
         <v>125</v>
       </c>
-      <c r="B54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" t="s">
-        <v>122</v>
-      </c>
-      <c r="E54" t="s">
-        <v>123</v>
-      </c>
-      <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
-        <v>126</v>
-      </c>
-      <c r="B55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" t="s">
-        <v>127</v>
-      </c>
-      <c r="D55" t="s">
-        <v>122</v>
-      </c>
-      <c r="E55" t="s">
-        <v>123</v>
-      </c>
-      <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="s">
-        <v>128</v>
-      </c>
-      <c r="B56" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" t="s">
-        <v>129</v>
-      </c>
-      <c r="D56" t="s">
-        <v>122</v>
-      </c>
-      <c r="E56" t="s">
-        <v>123</v>
-      </c>
-      <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="s">
-        <v>130</v>
-      </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" t="s">
-        <v>132</v>
-      </c>
-      <c r="E57" t="s">
-        <v>133</v>
-      </c>
-      <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" t="s">
-        <v>134</v>
-      </c>
-      <c r="B58" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" t="s">
-        <v>133</v>
-      </c>
-      <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" t="s">
-        <v>135</v>
-      </c>
-      <c r="B59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" t="s">
-        <v>132</v>
-      </c>
-      <c r="E59" t="s">
-        <v>133</v>
-      </c>
-      <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D60" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E60" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" t="s">
+        <v>140</v>
+      </c>
+      <c r="I60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E61" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G61">
         <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Load_Table.xlsx
+++ b/Load_Table.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\PycharmProjects\AC-Assginment-D01-WP4-5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0028D9DD-1B8E-40AE-9BCE-C998FEEB23BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="153">
   <si>
     <t>Case</t>
   </si>
@@ -478,8 +484,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,12 +494,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -508,19 +526,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -562,7 +590,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,9 +622,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -628,6 +674,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -803,14 +867,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -842,7 +908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -871,7 +937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -900,7 +966,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -929,7 +995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -958,7 +1024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -987,7 +1053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1016,7 +1082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1045,7 +1111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1074,7 +1140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1103,7 +1169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1132,7 +1198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1161,7 +1227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1190,7 +1256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1219,7 +1285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1248,7 +1314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1277,7 +1343,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1306,7 +1372,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -1335,7 +1401,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -1364,7 +1430,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -1393,7 +1459,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -1422,7 +1488,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -1451,7 +1517,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -1480,7 +1546,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -1509,7 +1575,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -1538,7 +1604,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -1567,7 +1633,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -1596,7 +1662,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -1625,7 +1691,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -1654,7 +1720,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -1683,7 +1749,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -1712,7 +1778,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -1741,7 +1807,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -1770,7 +1836,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -1799,7 +1865,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -1828,7 +1894,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -1857,7 +1923,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -1886,7 +1952,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -1915,7 +1981,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>105</v>
       </c>
@@ -1944,7 +2010,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>106</v>
       </c>
@@ -1973,7 +2039,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>108</v>
       </c>
@@ -2002,7 +2068,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>110</v>
       </c>
@@ -2031,7 +2097,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>114</v>
       </c>
@@ -2060,7 +2126,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -2089,7 +2155,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>116</v>
       </c>
@@ -2118,7 +2184,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>119</v>
       </c>
@@ -2147,102 +2213,105 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="F47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="F49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I49" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>127</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>22</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>23</v>
-      </c>
-      <c r="D49" t="s">
-        <v>123</v>
-      </c>
-      <c r="E49" t="s">
-        <v>124</v>
-      </c>
-      <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
-        <v>24</v>
-      </c>
-      <c r="I49" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>128</v>
-      </c>
-      <c r="B50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" t="s">
-        <v>129</v>
       </c>
       <c r="D50" t="s">
         <v>123</v>
@@ -2257,21 +2326,21 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I50" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D51" t="s">
         <v>123</v>
@@ -2286,27 +2355,27 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I51" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E52" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F52" t="s">
         <v>15</v>
@@ -2314,22 +2383,22 @@
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52" t="s">
-        <v>17</v>
+      <c r="H52">
+        <v>1</v>
       </c>
       <c r="I52" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="D53" t="s">
         <v>134</v>
@@ -2343,22 +2412,22 @@
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53" t="s">
-        <v>17</v>
+      <c r="H53">
+        <v>-1</v>
       </c>
       <c r="I53" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
         <v>134</v>
@@ -2373,21 +2442,21 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I54" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C55" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
         <v>134</v>
@@ -2402,21 +2471,21 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="I55" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D56" t="s">
         <v>134</v>
@@ -2431,27 +2500,27 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="I56" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D57" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E57" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F57" t="s">
         <v>15</v>
@@ -2460,21 +2529,21 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I57" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="D58" t="s">
         <v>145</v>
@@ -2495,15 +2564,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D59" t="s">
         <v>145</v>
@@ -2518,21 +2587,21 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I59" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="D60" t="s">
         <v>145</v>
@@ -2547,21 +2616,21 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="I60" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D61" t="s">
         <v>145</v>
@@ -2576,9 +2645,38 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
+        <v>140</v>
+      </c>
+      <c r="I61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" t="s">
+        <v>146</v>
+      </c>
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
         <v>10</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I62" t="s">
         <v>125</v>
       </c>
     </row>

--- a/Load_Table.xlsx
+++ b/Load_Table.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\PycharmProjects\AC-Assginment-D01-WP4-5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0028D9DD-1B8E-40AE-9BCE-C998FEEB23BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="153">
   <si>
     <t>Case</t>
   </si>
@@ -484,8 +478,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,24 +488,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -526,29 +508,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -590,7 +562,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -622,27 +594,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -674,24 +628,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -867,16 +803,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -908,7 +842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -937,7 +871,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -966,7 +900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -995,7 +929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1024,7 +958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1053,7 +987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1082,7 +1016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1111,7 +1045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1140,7 +1074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1169,7 +1103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1198,7 +1132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1227,7 +1161,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1256,7 +1190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1285,7 +1219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1314,7 +1248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1343,7 +1277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1372,7 +1306,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -1401,7 +1335,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -1430,7 +1364,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -1459,7 +1393,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -1488,7 +1422,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -1517,7 +1451,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -1546,7 +1480,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -1575,7 +1509,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -1604,7 +1538,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -1633,7 +1567,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -1662,7 +1596,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -1691,7 +1625,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -1720,7 +1654,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -1749,7 +1683,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -1778,7 +1712,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -1807,7 +1741,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -1836,7 +1770,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -1865,7 +1799,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -1894,7 +1828,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -1923,7 +1857,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -1952,7 +1886,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -1981,7 +1915,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>105</v>
       </c>
@@ -2010,7 +1944,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>106</v>
       </c>
@@ -2039,7 +1973,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>108</v>
       </c>
@@ -2068,7 +2002,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>110</v>
       </c>
@@ -2097,7 +2031,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>114</v>
       </c>
@@ -2126,7 +2060,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -2155,7 +2089,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>116</v>
       </c>
@@ -2184,7 +2118,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>119</v>
       </c>
@@ -2213,105 +2147,102 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>122</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>123</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
         <v>124</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1" t="s">
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" t="s">
         <v>125</v>
       </c>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" s="1" t="s">
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
         <v>123</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s">
         <v>124</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
-      <c r="H48" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I48" s="1" t="s">
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s">
         <v>125</v>
       </c>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="2" t="s">
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" t="s">
         <v>124</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="2">
-        <v>0</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" s="2" t="s">
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" t="s">
         <v>125</v>
       </c>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="D50" t="s">
         <v>123</v>
@@ -2326,21 +2257,21 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I50" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D51" t="s">
         <v>123</v>
@@ -2355,27 +2286,27 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I51" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D52" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E52" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F52" t="s">
         <v>15</v>
@@ -2383,22 +2314,22 @@
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52">
-        <v>1</v>
+      <c r="H52" t="s">
+        <v>17</v>
       </c>
       <c r="I52" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
         <v>134</v>
@@ -2412,22 +2343,22 @@
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53">
-        <v>-1</v>
+      <c r="H53" t="s">
+        <v>17</v>
       </c>
       <c r="I53" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D54" t="s">
         <v>134</v>
@@ -2442,21 +2373,21 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I54" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="D55" t="s">
         <v>134</v>
@@ -2471,21 +2402,21 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="I55" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D56" t="s">
         <v>134</v>
@@ -2500,27 +2431,27 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="I56" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D57" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E57" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F57" t="s">
         <v>15</v>
@@ -2529,21 +2460,21 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I57" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="D58" t="s">
         <v>145</v>
@@ -2564,15 +2495,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D59" t="s">
         <v>145</v>
@@ -2587,21 +2518,21 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I59" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="D60" t="s">
         <v>145</v>
@@ -2616,21 +2547,21 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="I60" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
         <v>145</v>
@@ -2645,38 +2576,9 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>151</v>
-      </c>
-      <c r="B62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" t="s">
-        <v>152</v>
-      </c>
-      <c r="D62" t="s">
-        <v>145</v>
-      </c>
-      <c r="E62" t="s">
-        <v>146</v>
-      </c>
-      <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" t="s">
         <v>125</v>
       </c>
     </row>
